--- a/Introduction to Analysis Workshop Datasets.xlsx
+++ b/Introduction to Analysis Workshop Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msmo365-my.sharepoint.com/personal/yphillips_msm_edu/Documents/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{13FA2C66-2B8A-4DD5-9EAA-DF7FA57B5D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10FB01F8-AF11-445B-A7E0-572446E7443D}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{13FA2C66-2B8A-4DD5-9EAA-DF7FA57B5D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B95423A-83C4-4B05-A525-765DC6C06B14}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{16ECEF13-21F9-4AE6-9449-FB847DC56F06}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="318">
   <si>
     <t>Item ID</t>
   </si>
@@ -1003,6 +1003,69 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>6. TEXTSPLIT</t>
+  </si>
+  <si>
+    <t>TEXTSPLIT(text, [row_delimiter], [column_delimiter], [ignore_empty])</t>
+  </si>
+  <si>
+    <t>Split text across multiple columns or rows based on delimiters.</t>
+  </si>
+  <si>
+    <t>Computers, Printers, Paper</t>
+  </si>
+  <si>
+    <t>For example, You have a string that lists several products separated by commas, and you want to split these into separate cells.</t>
+  </si>
+  <si>
+    <t>=SORT(A2:B4, 2, 1)</t>
+  </si>
+  <si>
+    <t>This formula sorts the range A2:B4 based on the values in the second column (prices). The third argument 1 denotes ascending orde</t>
+  </si>
+  <si>
+    <t>Learn how to use the SORT function to sort a range or array    =SORT(array, [sort_index], [sort_order], [by_col])</t>
+  </si>
+  <si>
+    <t>7. UNIQUE</t>
+  </si>
+  <si>
+    <t>=UNIQUE(B2:B10)</t>
+  </si>
+  <si>
+    <t>checks the range B2:B10, which contains the product names, and returns a list of unique names.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the UNIQUE function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the TEXTSPLIT function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the UNIQUE and SORT function </t>
+  </si>
+  <si>
+    <t>Exracts unique rows or unique values from specific columns within a dataset.</t>
+  </si>
+  <si>
+    <t>=SORT(UNIQUE(A2:E10), {1,5}, {1,1})</t>
+  </si>
+  <si>
+    <t>The SORT function is then used to sort these rows. The {1, 5} array specifies the sort keys: first by Product ID (column 1 of the array) and then by Month (column 5 of the array). The {1, 1} array specifies the sort order for each key, where 1 indicates ascending order.</t>
+  </si>
+  <si>
+    <t>Formula first extracts unique rows from A2 to E10 covering all columns.</t>
+  </si>
+  <si>
+    <t>Handling Errors: Ensure the Month column has consistent text data if used as a sort key. The invalid and missing entries may need to be cleaned up or standardized.</t>
+  </si>
+  <si>
+    <t>Advanced Sorting: The SORT function can sort data in descending order by using -1 in the sort order parameter or can handle sorting by multiple columns.</t>
+  </si>
+  <si>
+    <t>Spill Range: Make sure there are no obstructions in the spill range that would cause a #SPILL! error.</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1176,11 +1239,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
     <dxf>
       <font>
         <color theme="4" tint="0.39994506668294322"/>
@@ -1250,11 +1321,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1265,11 +1331,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,6 +1343,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1604,7 +1669,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1639,10 +1704,6 @@
       <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="E2">
-        <f>B2*C2</f>
-        <v>30000</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
@@ -1657,10 +1718,6 @@
       <c r="D3" s="5">
         <v>5</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E11" si="0">B3*C3</f>
-        <v>32000</v>
-      </c>
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1678,10 +1735,6 @@
       <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>45000</v>
-      </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
@@ -1699,10 +1752,6 @@
       <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
       <c r="G5" t="s">
         <v>7</v>
       </c>
@@ -1720,10 +1769,6 @@
       <c r="D6" s="5">
         <v>5</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>27000</v>
-      </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
@@ -1738,10 +1783,6 @@
       <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
       <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1759,10 +1800,6 @@
       <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>38500</v>
-      </c>
       <c r="G8" t="s">
         <v>9</v>
       </c>
@@ -1780,10 +1817,6 @@
       <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>21250</v>
-      </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
@@ -1801,10 +1834,6 @@
       <c r="D10" s="5">
         <v>4</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>27000</v>
-      </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
@@ -1818,10 +1847,6 @@
       </c>
       <c r="D11" s="5">
         <v>5</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>16500</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>11</v>
@@ -1932,23 +1957,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA30989E-F6F8-48B5-AF88-9247CEDAF610}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" customWidth="1"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1964,11 +1991,12 @@
       <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="14"/>
+      <c r="H1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1984,8 +2012,9 @@
       <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2001,11 +2030,12 @@
       <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="15"/>
+      <c r="H3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2021,11 +2051,12 @@
       <c r="E4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="15"/>
+      <c r="H4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2041,8 +2072,9 @@
       <c r="E5" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -2058,11 +2090,12 @@
       <c r="E6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="15"/>
+      <c r="H6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -2078,8 +2111,9 @@
       <c r="E7" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -2095,11 +2129,12 @@
       <c r="E8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="15"/>
+      <c r="H8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -2115,11 +2150,12 @@
       <c r="E9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="15"/>
+      <c r="H9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -2135,208 +2171,209 @@
       <c r="E10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="15"/>
+      <c r="H10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G11" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H11" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G16" cm="1">
-        <f t="array" ref="G16">AVERAGE(IFERROR(C2:C10, ""))</f>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">AVERAGE(IFERROR(C2:C10, ""))</f>
         <v>176.42857142857142</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G17" t="s">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G18" t="s">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G19" t="s">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G20" t="s">
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G21" t="s">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G22" t="s">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G24" s="3" t="s">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H24" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G25" t="s">
+    <row r="25" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G26" t="s">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G27" t="s">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G28" t="s">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G29" t="s">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G30" t="s">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G31" t="e" cm="1">
-        <f t="array" ref="G31">VALUE(text)</f>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H31" t="e" cm="1">
+        <f t="array" ref="H31">VALUE(text)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G32" t="s">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G33" t="s">
+    <row r="33" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="H34" s="7" t="s">
+    <row r="34" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="I34" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G35" s="3" t="s">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H35" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G36" t="s">
+    <row r="36" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G37" t="s">
+    <row r="37" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G38" t="s">
+    <row r="38" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G39" t="s">
+    <row r="39" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G40" t="s">
+    <row r="40" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G41" s="7" t="s">
+    <row r="41" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H41" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G42" cm="1">
-        <f t="array" ref="G42">AVERAGE(IF(C2:C10&lt;0, 0, C2:C10))</f>
+    <row r="42" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H42" cm="1">
+        <f t="array" ref="H42">AVERAGE(IF(C2:C10&lt;0, 0, C2:C10))</f>
         <v>176.42857142857142</v>
       </c>
     </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G43" t="s">
+    <row r="43" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H43" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="J44" t="s">
+    <row r="44" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="K44" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G45" s="3" t="s">
+    <row r="45" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H45" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G46" t="s">
+    <row r="46" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G47" t="s">
+    <row r="47" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H47" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.35">
-      <c r="G48" t="s">
+    <row r="48" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="H48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>296</v>
       </c>
       <c r="D50" t="s">
@@ -2345,43 +2382,161 @@
       <c r="E50" t="s">
         <v>296</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="6">
         <v>250</v>
       </c>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="H51" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="6">
         <v>150</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="6">
+        <v>300</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>309</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="16">
+        <v>45292</v>
+      </c>
+      <c r="B57" t="s">
+        <v>300</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H58" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>308</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H61" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="J61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H62" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="J62" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H63" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L63" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H64" s="7"/>
+      <c r="L64" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>310</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H67" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H68" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H71" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53">
-        <v>300</v>
-      </c>
-      <c r="G53" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H72" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G54" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H73" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2751,14 +2906,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="top10" dxfId="8" priority="3" rank="10"/>
+    <cfRule type="top10" dxfId="7" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="5" rank="10"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E10:E1048576">
-    <cfRule type="top10" dxfId="9" priority="1" rank="1"/>
-    <cfRule type="top10" dxfId="8" priority="2" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="top10" dxfId="7" priority="3" rank="10"/>
-    <cfRule type="top10" dxfId="6" priority="4" rank="1"/>
-    <cfRule type="top10" dxfId="5" priority="5" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11834,23 +11989,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
-      <formula>1500</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B13">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
       <formula>800</formula>
@@ -11861,11 +11999,6 @@
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>1500</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Furniture">
-      <formula>NOT(ISERROR(SEARCH("Furniture",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
@@ -11880,6 +12013,23 @@
           <x14:id>{60BCC658-FAB0-4575-9EC8-948FABCE3170}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Furniture">
+      <formula>NOT(ISERROR(SEARCH("Furniture",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
